--- a/SpMBC_005_RentBook/document/도서대여-테이블명세.xlsx
+++ b/SpMBC_005_RentBook/document/도서대여-테이블명세.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505001\Documents\workspace\DBMS\서버프로그램구현\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505001\Documents\workspace\springMVC\SpMBC_005_RentBook\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69949F93-150D-4D65-AAA0-961B48DFE7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64BA692-E1C0-4689-87BB-7EB82AFB5FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="94">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>book1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>대여 도서 정보를 관리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -249,18 +245,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>U_NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_TEL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_ADDR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>tbl_rent_book</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -372,10 +356,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>U_USE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Y: 사용 N: 탈퇴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -385,6 +365,42 @@
   </si>
   <si>
     <t>Y: 사용, N: 중지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rentBookDB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_members</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_CODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_TEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_ADDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_USE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1286,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1966,7 +1982,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -1985,7 +2001,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -2037,20 +2053,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2062,19 +2078,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -2087,19 +2103,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -2112,16 +2128,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2135,19 +2151,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -2160,16 +2176,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -2183,19 +2199,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -2208,26 +2224,26 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2513,8 +2529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90B5748-4739-4C80-A239-0FD48C1E13DB}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3170,7 +3186,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>14</v>
@@ -3193,7 +3209,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -3212,7 +3228,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -3264,20 +3280,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -3289,19 +3305,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -3314,16 +3330,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3337,16 +3353,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -3360,26 +3376,26 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3711,7 +3727,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4367,7 +4383,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>14</v>
@@ -4390,7 +4406,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -4409,7 +4425,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -4461,23 +4477,23 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -4488,19 +4504,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -4513,19 +4529,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="F8" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -4538,29 +4554,29 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L9" s="15"/>
     </row>
@@ -4569,29 +4585,29 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10" s="15"/>
     </row>
@@ -4600,16 +4616,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -4617,7 +4633,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4625,16 +4641,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -4642,7 +4658,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/SpMBC_005_RentBook/document/도서대여-테이블명세.xlsx
+++ b/SpMBC_005_RentBook/document/도서대여-테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505001\Documents\workspace\springMVC\SpMBC_005_RentBook\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64BA692-E1C0-4689-87BB-7EB82AFB5FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695D0FD3-1AD4-4335-8190-C314D900E0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="96">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -300,10 +300,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RENT_UCODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RENT_POINT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -316,10 +312,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -401,6 +393,22 @@
   </si>
   <si>
     <t>VARCHAR(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENT_MCODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENT_PRICE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1982,7 +1990,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -2224,16 +2232,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>63</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>42</v>
@@ -2243,7 +2251,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2529,7 +2537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90B5748-4739-4C80-A239-0FD48C1E13DB}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -3186,7 +3194,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>14</v>
@@ -3209,7 +3217,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -3286,7 +3294,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>44</v>
@@ -3311,7 +3319,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>45</v>
@@ -3333,13 +3341,13 @@
         <v>51</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3359,7 +3367,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>45</v>
@@ -3376,16 +3384,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>63</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>42</v>
@@ -3395,7 +3403,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3726,8 +3734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116E61F2-6D51-4C84-9A60-9BDF1DADF092}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4406,7 +4414,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -4486,14 +4494,14 @@
         <v>64</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
         <v>43</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -4513,7 +4521,7 @@
         <v>65</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>42</v>
@@ -4538,7 +4546,7 @@
         <v>66</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>42</v>
@@ -4563,14 +4571,14 @@
         <v>67</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>23</v>
@@ -4591,7 +4599,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>44</v>
@@ -4601,7 +4609,7 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>47</v>
@@ -4622,10 +4630,10 @@
         <v>63</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -4633,7 +4641,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4647,7 +4655,7 @@
         <v>34</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>46</v>
@@ -4658,17 +4666,25 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
